--- a/data/final/price decline since release date - Samsung.xlsx
+++ b/data/final/price decline since release date - Samsung.xlsx
@@ -2708,8 +2708,11 @@
       <c r="I71">
         <v>0.7943500804577148</v>
       </c>
+      <c r="J71">
+        <v>0.7269729093050643</v>
+      </c>
       <c r="K71">
-        <v>0.8503182863128981</v>
+        <v>0.8366132444231388</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2740,8 +2743,11 @@
       <c r="I72">
         <v>0.7936509923118182</v>
       </c>
+      <c r="J72">
+        <v>0.7258118795221264</v>
+      </c>
       <c r="K72">
-        <v>0.8500063798567783</v>
+        <v>0.8362069909307058</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2772,8 +2778,11 @@
       <c r="I73">
         <v>0.7909261576971213</v>
       </c>
+      <c r="J73">
+        <v>0.7255510684839303</v>
+      </c>
       <c r="K73">
-        <v>0.8479477181696804</v>
+        <v>0.8343480904268192</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2804,8 +2813,11 @@
       <c r="I74">
         <v>0.7868549973180761</v>
       </c>
+      <c r="J74">
+        <v>0.7257109204105667</v>
+      </c>
       <c r="K74">
-        <v>0.8453772533696386</v>
+        <v>0.832080994151964</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -13330,10 +13342,10 @@
         <v>0.6153014510525235</v>
       </c>
       <c r="I403">
-        <v>0.5938852136599315</v>
+        <v>0.5926783479349181</v>
       </c>
       <c r="K403">
-        <v>0.5934439177157781</v>
+        <v>0.5932930595001514</v>
       </c>
     </row>
     <row r="404" spans="1:11">
@@ -13361,8 +13373,11 @@
       <c r="H404">
         <v>0.6116125076640093</v>
       </c>
+      <c r="I404">
+        <v>0.5916359735383508</v>
+      </c>
       <c r="K404">
-        <v>0.5930084099232807</v>
+        <v>0.5928368553751645</v>
       </c>
     </row>
     <row r="405" spans="1:11">
@@ -13390,8 +13405,11 @@
       <c r="H405">
         <v>0.6116329450235024</v>
       </c>
+      <c r="I405">
+        <v>0.5905935991417838</v>
+      </c>
       <c r="K405">
-        <v>0.5924460316606479</v>
+        <v>0.5922144775957898</v>
       </c>
     </row>
     <row r="406" spans="1:11">
@@ -13419,8 +13437,11 @@
       <c r="H406">
         <v>0.6116349887594517</v>
       </c>
+      <c r="I406">
+        <v>0.5937403897729299</v>
+      </c>
       <c r="K406">
-        <v>0.592481814201574</v>
+        <v>0.5926391361479935</v>
       </c>
     </row>
     <row r="407" spans="1:11">
@@ -13448,8 +13469,11 @@
       <c r="H407">
         <v>0.6118495810341297</v>
       </c>
+      <c r="I407">
+        <v>0.5948131593062751</v>
+      </c>
       <c r="K407">
-        <v>0.5929837742206746</v>
+        <v>0.5932124473563747</v>
       </c>
     </row>
     <row r="408" spans="1:11">
@@ -24987,8 +25011,11 @@
       <c r="G805">
         <v>0.5151808706315156</v>
       </c>
+      <c r="H805">
+        <v>0.475565092989986</v>
+      </c>
       <c r="K805">
-        <v>0.4889247172632881</v>
+        <v>0.4870161995099592</v>
       </c>
     </row>
     <row r="806" spans="1:11">
@@ -25013,8 +25040,11 @@
       <c r="G806">
         <v>0.5151808706315156</v>
       </c>
+      <c r="H806">
+        <v>0.4757715103208669</v>
+      </c>
       <c r="K806">
-        <v>0.488711393946911</v>
+        <v>0.4868628391431905</v>
       </c>
     </row>
     <row r="807" spans="1:11">
@@ -25039,8 +25069,11 @@
       <c r="G807">
         <v>0.5478806458205613</v>
       </c>
+      <c r="H807">
+        <v>0.4757715103208669</v>
+      </c>
       <c r="K807">
-        <v>0.4955802093206426</v>
+        <v>0.4927503951778175</v>
       </c>
     </row>
     <row r="808" spans="1:11">
@@ -25065,8 +25098,11 @@
       <c r="G808">
         <v>0.5164295932965474</v>
       </c>
+      <c r="H808">
+        <v>0.4757715103208669</v>
+      </c>
       <c r="K808">
-        <v>0.492401024694975</v>
+        <v>0.4900253797843881</v>
       </c>
     </row>
     <row r="809" spans="1:11">

--- a/data/final/price decline since release date - Samsung.xlsx
+++ b/data/final/price decline since release date - Samsung.xlsx
@@ -2814,10 +2814,10 @@
         <v>0.7868549973180761</v>
       </c>
       <c r="J74">
-        <v>0.7257109204105667</v>
+        <v>0.7226905603230688</v>
       </c>
       <c r="K74">
-        <v>0.832080994151964</v>
+        <v>0.8317453985866865</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2848,8 +2848,11 @@
       <c r="I75">
         <v>0.7848292508492757</v>
       </c>
+      <c r="J75">
+        <v>0.7202507151270398</v>
+      </c>
       <c r="K75">
-        <v>0.8431290752747351</v>
+        <v>0.8294759241472134</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2880,8 +2883,11 @@
       <c r="I76">
         <v>0.7796638655462182</v>
       </c>
+      <c r="J76">
+        <v>0.7190728588255085</v>
+      </c>
       <c r="K76">
-        <v>0.8416686290754617</v>
+        <v>0.8280468768254668</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2912,8 +2918,11 @@
       <c r="I77">
         <v>0.7759306275701767</v>
       </c>
+      <c r="J77">
+        <v>0.7152868921420154</v>
+      </c>
       <c r="K77">
-        <v>0.8406049011397823</v>
+        <v>0.8266806779178082</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2944,8 +2953,11 @@
       <c r="I78">
         <v>0.7723708206686928</v>
       </c>
+      <c r="J78">
+        <v>0.7102389365640244</v>
+      </c>
       <c r="K78">
-        <v>0.8392151371134204</v>
+        <v>0.8248844481634875</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2976,8 +2988,11 @@
       <c r="I79">
         <v>0.768133381011979</v>
       </c>
+      <c r="J79">
+        <v>0.7051909809860335</v>
+      </c>
       <c r="K79">
-        <v>0.8369182972775602</v>
+        <v>0.8222819288007239</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3008,8 +3023,11 @@
       <c r="I80">
         <v>0.7659216878240657</v>
       </c>
+      <c r="J80">
+        <v>0.6989735823658079</v>
+      </c>
       <c r="K80">
-        <v>0.8352621621414511</v>
+        <v>0.8201189866108241</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3040,8 +3058,11 @@
       <c r="I81">
         <v>0.7657554085463971</v>
       </c>
+      <c r="J81">
+        <v>0.6957765438330803</v>
+      </c>
       <c r="K81">
-        <v>0.8346695243421337</v>
+        <v>0.8192369709522389</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3072,8 +3093,11 @@
       <c r="I82">
         <v>0.7628070802789201</v>
       </c>
+      <c r="J82">
+        <v>0.6930843008581518</v>
+      </c>
       <c r="K82">
-        <v>0.8359570076393542</v>
+        <v>0.8200822624414428</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3104,8 +3128,11 @@
       <c r="I83">
         <v>0.7612908993384586</v>
       </c>
+      <c r="J83">
+        <v>0.6892142015816921</v>
+      </c>
       <c r="K83">
-        <v>0.8353421443525765</v>
+        <v>0.8191057062669227</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3136,8 +3163,11 @@
       <c r="I84">
         <v>0.7583425710709815</v>
       </c>
+      <c r="J84">
+        <v>0.6856806326770986</v>
+      </c>
       <c r="K84">
-        <v>0.8340954398458351</v>
+        <v>0.8176049057159755</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3168,8 +3198,11 @@
       <c r="I85">
         <v>0.7550384409082779</v>
       </c>
+      <c r="J85">
+        <v>0.6841662460037014</v>
+      </c>
       <c r="K85">
-        <v>0.835061439093099</v>
+        <v>0.8182953065276104</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3200,8 +3233,11 @@
       <c r="I86">
         <v>0.7543018058287142</v>
       </c>
+      <c r="J86">
+        <v>0.6826518593303039</v>
+      </c>
       <c r="K86">
-        <v>0.8319692186310159</v>
+        <v>0.8153784009309368</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3232,8 +3268,11 @@
       <c r="I87">
         <v>0.7535651707491505</v>
       </c>
+      <c r="J87">
+        <v>0.6804644119131746</v>
+      </c>
       <c r="K87">
-        <v>0.830862762069446</v>
+        <v>0.8141518342743047</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3264,8 +3303,11 @@
       <c r="I88">
         <v>0.7398641158591094</v>
       </c>
+      <c r="J88">
+        <v>0.6782769644960452</v>
+      </c>
       <c r="K88">
-        <v>0.8270587040127875</v>
+        <v>0.8105273996220383</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -13470,10 +13512,10 @@
         <v>0.6118495810341297</v>
       </c>
       <c r="I407">
-        <v>0.5948131593062751</v>
+        <v>0.5934543178973711</v>
       </c>
       <c r="K407">
-        <v>0.5932124473563747</v>
+        <v>0.5930425921802617</v>
       </c>
     </row>
     <row r="408" spans="1:11">
@@ -13501,8 +13543,11 @@
       <c r="H408">
         <v>0.6118516247700789</v>
       </c>
+      <c r="I408">
+        <v>0.5937225102807074</v>
+      </c>
       <c r="K408">
-        <v>0.5939263132490556</v>
+        <v>0.5939008378780121</v>
       </c>
     </row>
     <row r="409" spans="1:11">
@@ -13530,8 +13575,11 @@
       <c r="H409">
         <v>0.6130676476599215</v>
       </c>
+      <c r="I409">
+        <v>0.5953495440729478</v>
+      </c>
       <c r="K409">
-        <v>0.5948070714826066</v>
+        <v>0.5948748805563993</v>
       </c>
     </row>
     <row r="410" spans="1:11">
@@ -13559,8 +13607,11 @@
       <c r="H410">
         <v>0.6122338033926009</v>
       </c>
+      <c r="I410">
+        <v>0.5929805113534771</v>
+      </c>
       <c r="K410">
-        <v>0.5957220130284152</v>
+        <v>0.5953793253190479</v>
       </c>
     </row>
     <row r="411" spans="1:11">
@@ -13588,8 +13639,11 @@
       <c r="H411">
         <v>0.6144900878806451</v>
       </c>
+      <c r="I411">
+        <v>0.5938619703200424</v>
+      </c>
       <c r="K411">
-        <v>0.5971656982605394</v>
+        <v>0.5967527322679773</v>
       </c>
     </row>
     <row r="412" spans="1:11">
@@ -13617,8 +13671,11 @@
       <c r="H412">
         <v>0.6145084815041889</v>
       </c>
+      <c r="I412">
+        <v>0.5931342749865899</v>
+      </c>
       <c r="K412">
-        <v>0.5975741953538505</v>
+        <v>0.5970192053079429</v>
       </c>
     </row>
     <row r="413" spans="1:11">
@@ -13646,8 +13703,11 @@
       <c r="H413">
         <v>0.6165419987737577</v>
       </c>
+      <c r="I413">
+        <v>0.5882174146254241</v>
+      </c>
       <c r="K413">
-        <v>0.5977004851931454</v>
+        <v>0.5965151013721802</v>
       </c>
     </row>
     <row r="414" spans="1:11">
@@ -13675,8 +13735,11 @@
       <c r="H414">
         <v>0.6185755160433265</v>
       </c>
+      <c r="I414">
+        <v>0.5862685499731802</v>
+      </c>
       <c r="K414">
-        <v>0.5974369464583846</v>
+        <v>0.5960408968977341</v>
       </c>
     </row>
     <row r="415" spans="1:11">
@@ -13704,8 +13767,11 @@
       <c r="H415">
         <v>0.6208215818516242</v>
       </c>
+      <c r="I415">
+        <v>0.5801895226175571</v>
+      </c>
       <c r="K415">
-        <v>0.5962772276519608</v>
+        <v>0.5942662645226603</v>
       </c>
     </row>
     <row r="416" spans="1:11">
@@ -13733,8 +13799,11 @@
       <c r="H416">
         <v>0.623905579399141</v>
       </c>
+      <c r="I416">
+        <v>0.5764348292508487</v>
+      </c>
       <c r="K416">
-        <v>0.5966176511051475</v>
+        <v>0.5940947983733601</v>
       </c>
     </row>
     <row r="417" spans="1:11">
@@ -13762,8 +13831,11 @@
       <c r="H417">
         <v>0.6284201921111786</v>
       </c>
+      <c r="I417">
+        <v>0.5719649561952435</v>
+      </c>
       <c r="K417">
-        <v>0.5979336585086135</v>
+        <v>0.5946875707194422</v>
       </c>
     </row>
     <row r="418" spans="1:11">
@@ -13791,8 +13863,11 @@
       <c r="H418">
         <v>0.6320703045166558</v>
       </c>
+      <c r="I418">
+        <v>0.5671374932951899</v>
+      </c>
       <c r="K418">
-        <v>0.5991833711428985</v>
+        <v>0.595177636411935</v>
       </c>
     </row>
     <row r="419" spans="1:11">
@@ -13820,8 +13895,11 @@
       <c r="H419">
         <v>0.6279848763539743</v>
       </c>
+      <c r="I419">
+        <v>0.5642767745396025</v>
+      </c>
       <c r="K419">
-        <v>0.5990760008817001</v>
+        <v>0.5947260975889379</v>
       </c>
     </row>
     <row r="420" spans="1:11">
@@ -13849,8 +13927,11 @@
       <c r="H420">
         <v>0.6198099325567129</v>
       </c>
+      <c r="I420">
+        <v>0.5614160557840152</v>
+      </c>
       <c r="K420">
-        <v>0.5978540024693585</v>
+        <v>0.5932992591336905</v>
       </c>
     </row>
     <row r="421" spans="1:11">
@@ -13878,8 +13959,11 @@
       <c r="H421">
         <v>0.6116349887594515</v>
       </c>
+      <c r="I421">
+        <v>0.55694618272841</v>
+      </c>
       <c r="K421">
-        <v>0.5972964998559313</v>
+        <v>0.5922527102149912</v>
       </c>
     </row>
     <row r="422" spans="1:11">
@@ -25099,10 +25183,10 @@
         <v>0.5164295932965474</v>
       </c>
       <c r="H808">
-        <v>0.4757715103208669</v>
+        <v>0.4749540159411407</v>
       </c>
       <c r="K808">
-        <v>0.4900253797843881</v>
+        <v>0.4899085948729987</v>
       </c>
     </row>
     <row r="809" spans="1:11">
@@ -25127,8 +25211,11 @@
       <c r="G809">
         <v>0.5137747802983869</v>
       </c>
+      <c r="H809">
+        <v>0.473329245861435</v>
+      </c>
       <c r="K809">
-        <v>0.4931732137629443</v>
+        <v>0.4903383612055858</v>
       </c>
     </row>
     <row r="810" spans="1:11">
@@ -25153,8 +25240,11 @@
       <c r="G810">
         <v>0.5137747802983867</v>
       </c>
+      <c r="H810">
+        <v>0.472797874514613</v>
+      </c>
       <c r="K810">
-        <v>0.4947629981546084</v>
+        <v>0.4916251233488948</v>
       </c>
     </row>
     <row r="811" spans="1:11">
@@ -25179,8 +25269,11 @@
       <c r="G811">
         <v>0.5219497240956482</v>
       </c>
+      <c r="H811">
+        <v>0.4714490087880648</v>
+      </c>
       <c r="K811">
-        <v>0.4986596958442154</v>
+        <v>0.4947724548361939</v>
       </c>
     </row>
     <row r="812" spans="1:11">
@@ -25205,8 +25298,11 @@
       <c r="G812">
         <v>0.5219497240956482</v>
       </c>
+      <c r="H812">
+        <v>0.4694052728387495</v>
+      </c>
       <c r="K812">
-        <v>0.497711911695301</v>
+        <v>0.493668106144365</v>
       </c>
     </row>
     <row r="813" spans="1:11">
@@ -25231,8 +25327,11 @@
       <c r="G813">
         <v>0.5178622521970174</v>
       </c>
+      <c r="H813">
+        <v>0.4673615368894342</v>
+      </c>
       <c r="K813">
-        <v>0.4948296215733702</v>
+        <v>0.4909056094756651</v>
       </c>
     </row>
     <row r="814" spans="1:11">
@@ -25257,8 +25356,11 @@
       <c r="G814">
         <v>0.5137747802983867</v>
       </c>
+      <c r="H814">
+        <v>0.4653178009401188</v>
+      </c>
       <c r="K814">
-        <v>0.4878960838857644</v>
+        <v>0.4846706148935293</v>
       </c>
     </row>
     <row r="815" spans="1:11">
@@ -25283,8 +25385,11 @@
       <c r="G815">
         <v>0.5423870835888017</v>
       </c>
+      <c r="H815">
+        <v>0.4634682199059884</v>
+      </c>
       <c r="K815">
-        <v>0.4892133420950883</v>
+        <v>0.4855354674966454</v>
       </c>
     </row>
     <row r="816" spans="1:11">
@@ -25309,8 +25414,11 @@
       <c r="G816">
         <v>0.540159411404048</v>
       </c>
+      <c r="H816">
+        <v>0.4622317596566526</v>
+      </c>
       <c r="K816">
-        <v>0.4862623464324775</v>
+        <v>0.4828294054645025</v>
       </c>
     </row>
     <row r="817" spans="1:11">
@@ -25335,8 +25443,11 @@
       <c r="G817">
         <v>0.5197220519108946</v>
       </c>
+      <c r="H817">
+        <v>0.4603106478642962</v>
+      </c>
       <c r="K817">
-        <v>0.4797268775934568</v>
+        <v>0.476953130489291</v>
       </c>
     </row>
     <row r="818" spans="1:11">
@@ -25361,8 +25472,11 @@
       <c r="G818">
         <v>0.5149192724300035</v>
       </c>
+      <c r="H818">
+        <v>0.4579705702023302</v>
+      </c>
       <c r="K818">
-        <v>0.473059005408858</v>
+        <v>0.4709035146650683</v>
       </c>
     </row>
     <row r="819" spans="1:11">
@@ -25387,8 +25501,11 @@
       <c r="G819">
         <v>0.5110341303903549</v>
       </c>
+      <c r="H819">
+        <v>0.4563253627631313</v>
+      </c>
       <c r="K819">
-        <v>0.468048310656024</v>
+        <v>0.4663736038141822</v>
       </c>
     </row>
     <row r="820" spans="1:11">
@@ -25413,8 +25530,11 @@
       <c r="G820">
         <v>0.5112364602493372</v>
       </c>
+      <c r="H820">
+        <v>0.4546801553239325</v>
+      </c>
       <c r="K820">
-        <v>0.4715457868751071</v>
+        <v>0.469136410939225</v>
       </c>
     </row>
     <row r="821" spans="1:11">
@@ -25439,8 +25559,11 @@
       <c r="G821">
         <v>0.5073513182096887</v>
       </c>
+      <c r="H821">
+        <v>0.4525955446556308</v>
+      </c>
       <c r="K821">
-        <v>0.4746773679493556</v>
+        <v>0.4715228217645378</v>
       </c>
     </row>
     <row r="822" spans="1:11">
@@ -25465,8 +25588,11 @@
       <c r="G822">
         <v>0.4787390149192738</v>
       </c>
+      <c r="H822">
+        <v>0.4517882689556512</v>
+      </c>
       <c r="K822">
-        <v>0.4700970653701086</v>
+        <v>0.4674815230251861</v>
       </c>
     </row>
     <row r="823" spans="1:11">
